--- a/alm/src/main/resources/excel/projectCostStatisticTemplate.xlsx
+++ b/alm/src/main/resources/excel/projectCostStatisticTemplate.xlsx
@@ -91,9 +91,10 @@
   </si>
   <si>
     <t>t.actualTotalCost}}</t>
-  </si>
-  <si>
-    <t>{{$fe:projectCosts t t.projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe:projectCosts t.projectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
